--- a/Control.xlsx
+++ b/Control.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Subir-Archivos-CF\Subir Archivos de Controladores Fiscales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43281B00-0F14-4BBC-BE6F-2E50665D5264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98FEE1A-DCF8-4802-90B3-BEAB6E50FB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
